--- a/Validation/merged_file.xlsx
+++ b/Validation/merged_file.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krishno Dey\Documents\Linguistic\Validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8FB782-5827-4BF9-9B39-7F3A7CE4799B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0F920A-D7AE-4009-9CC3-C93B7610DBAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="merged_file" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="all" sheetId="4" r:id="rId1"/>
+    <sheet name="merged_file" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">merged_file!$A$1:$AW$92</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">merged_file!$A$1:$AW$92</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="266">
   <si>
     <t>ID</t>
   </si>
@@ -780,6 +781,48 @@
   </si>
   <si>
     <t>Total, Average</t>
+  </si>
+  <si>
+    <t>Amorphous</t>
+  </si>
+  <si>
+    <t>Galib</t>
+  </si>
+  <si>
+    <t>Shimul</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arid </t>
+  </si>
+  <si>
+    <t>Non-standard</t>
+  </si>
+  <si>
+    <t>Crudy</t>
+  </si>
+  <si>
+    <t>Unversioned</t>
+  </si>
+  <si>
+    <t>Pluralized Nodes</t>
+  </si>
+  <si>
+    <t>Non-Descriptive</t>
+  </si>
+  <si>
+    <t>Contextless</t>
+  </si>
+  <si>
+    <t>Non-hierarchical</t>
+  </si>
+  <si>
+    <t>LessCohesive</t>
+  </si>
+  <si>
+    <t>Incosistent URI</t>
   </si>
 </sst>
 </file>
@@ -1270,12 +1313,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1631,6 +1677,1736 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2105EAED-75D0-4988-94D9-9745C9B462BF}">
+  <dimension ref="A1:AH93"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F2" t="s">
+        <v>253</v>
+      </c>
+      <c r="G2" t="s">
+        <v>254</v>
+      </c>
+      <c r="H2" t="s">
+        <v>256</v>
+      </c>
+      <c r="I2" t="s">
+        <v>253</v>
+      </c>
+      <c r="J2" t="s">
+        <v>254</v>
+      </c>
+      <c r="K2" t="s">
+        <v>256</v>
+      </c>
+      <c r="L2" t="s">
+        <v>253</v>
+      </c>
+      <c r="M2" t="s">
+        <v>254</v>
+      </c>
+      <c r="N2" t="s">
+        <v>256</v>
+      </c>
+      <c r="O2" t="s">
+        <v>253</v>
+      </c>
+      <c r="P2" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>256</v>
+      </c>
+      <c r="R2" t="s">
+        <v>253</v>
+      </c>
+      <c r="S2" t="s">
+        <v>254</v>
+      </c>
+      <c r="T2" t="s">
+        <v>256</v>
+      </c>
+      <c r="U2" t="s">
+        <v>253</v>
+      </c>
+      <c r="V2" t="s">
+        <v>254</v>
+      </c>
+      <c r="W2" t="s">
+        <v>256</v>
+      </c>
+      <c r="X2" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>253</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>254</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>253</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>254</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>253</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>1</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+      <c r="S31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <v>1</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>1</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>1</v>
+      </c>
+      <c r="S36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="P37">
+        <v>1</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>1</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>1</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>1</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>1</v>
+      </c>
+      <c r="S42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>1</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>1</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="P46">
+        <v>1</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>1</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>1</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>1</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>1</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="P54">
+        <v>1</v>
+      </c>
+      <c r="S54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>1</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>1</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>1</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>1</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>1</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="P61">
+        <v>1</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>1</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>1</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>1</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>1</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>1</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>1</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>1</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="P70">
+        <v>1</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>1</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>1</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>1</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>1</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>1</v>
+      </c>
+      <c r="S76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>1</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <v>1</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <v>1</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <v>1</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="P82">
+        <v>1</v>
+      </c>
+      <c r="S82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <v>1</v>
+      </c>
+      <c r="S83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <v>1</v>
+      </c>
+      <c r="S84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
+      </c>
+      <c r="S85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <v>1</v>
+      </c>
+      <c r="S86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="S87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+      <c r="P88">
+        <v>1</v>
+      </c>
+      <c r="S88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="P89">
+        <v>1</v>
+      </c>
+      <c r="S89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="P90">
+        <v>1</v>
+      </c>
+      <c r="S90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="P91">
+        <v>1</v>
+      </c>
+      <c r="S91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="P92">
+        <v>1</v>
+      </c>
+      <c r="S92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+      <c r="P93">
+        <v>1</v>
+      </c>
+      <c r="S93">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AF1:AH1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="T1:V1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Z92"/>
@@ -8737,11 +10513,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:A10"/>
     </sheetView>
   </sheetViews>
